--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\geolocalizacaoMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\localizacaoLogradouro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF91C9-1941-4C66-AD83-2C85E3414C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADD68A1-D9D0-4646-9A36-34AC315EC8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logradouro" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Logradouro!#REF!</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="227">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -700,6 +701,21 @@
   </si>
   <si>
     <t>A PROCESSAR</t>
+  </si>
+  <si>
+    <t>Av. Rio Negro, 683 - Dom Bosco</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Av. Juiz Marco Túlio Isaac, 9285 - Nova Baden</t>
+  </si>
+  <si>
+    <t>R. Emboabas, 160 - Laranjeiras</t>
+  </si>
+  <si>
+    <t>R. Argélia, 178 - Petrovale</t>
   </si>
 </sst>
 </file>
@@ -1224,22 +1240,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="12">
+        <f>COUNTIF(E2:E6,"NÃO ENCONTRADO")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="12">
+        <f>COUNTA(E2:E6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="14">
+        <f>1 - E7/E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C734A6-4A6B-4877-ACB5-438B430AEB76}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1419,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1271,7 +1434,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -1286,7 +1449,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1464,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1479,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1494,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1509,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1524,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1539,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1554,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1569,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +1584,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1599,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1614,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1466,7 +1629,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1644,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1659,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1674,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1526,7 +1689,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1704,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1556,7 +1719,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1571,7 +1734,7 @@
       </c>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1749,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1764,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1779,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1794,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -1646,7 +1809,7 @@
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1661,7 +1824,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1676,7 +1839,7 @@
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +1854,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1706,7 +1869,7 @@
       </c>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -1721,7 +1884,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1736,7 +1899,7 @@
       </c>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1751,7 +1914,7 @@
       </c>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1766,7 +1929,7 @@
       </c>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +1944,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1959,7 @@
       </c>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1974,7 @@
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -1826,7 +1989,7 @@
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +2004,7 @@
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -1856,7 +2019,7 @@
       </c>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
@@ -1871,7 +2034,7 @@
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1886,7 +2049,7 @@
       </c>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -1901,7 +2064,7 @@
       </c>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -1916,7 +2079,7 @@
       </c>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -1931,7 +2094,7 @@
       </c>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -1946,7 +2109,7 @@
       </c>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -1961,7 +2124,7 @@
       </c>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -1976,7 +2139,7 @@
       </c>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>49</v>
       </c>
@@ -1991,7 +2154,7 @@
       </c>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +2169,7 @@
       </c>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -2021,7 +2184,7 @@
       </c>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2036,7 +2199,7 @@
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2051,7 +2214,7 @@
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2066,7 +2229,7 @@
       </c>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2081,7 +2244,7 @@
       </c>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>56</v>
       </c>
@@ -2096,7 +2259,7 @@
       </c>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2111,7 +2274,7 @@
       </c>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>58</v>
       </c>
@@ -2126,7 +2289,7 @@
       </c>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -2141,7 +2304,7 @@
       </c>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
@@ -2156,7 +2319,7 @@
       </c>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -2171,7 +2334,7 @@
       </c>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>62</v>
       </c>
@@ -2186,7 +2349,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
@@ -2201,7 +2364,7 @@
       </c>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>64</v>
       </c>
@@ -2216,7 +2379,7 @@
       </c>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>65</v>
       </c>
@@ -2231,7 +2394,7 @@
       </c>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -2246,7 +2409,7 @@
       </c>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -2261,7 +2424,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -2276,7 +2439,7 @@
       </c>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
@@ -2291,7 +2454,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
@@ -2306,7 +2469,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>71</v>
       </c>
@@ -2321,7 +2484,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>72</v>
       </c>
@@ -2336,7 +2499,7 @@
       </c>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -2351,7 +2514,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>74</v>
       </c>
@@ -2366,7 +2529,7 @@
       </c>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -2381,7 +2544,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -2396,7 +2559,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
@@ -2411,7 +2574,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
@@ -2426,7 +2589,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -2441,7 +2604,7 @@
       </c>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>80</v>
       </c>
@@ -2456,7 +2619,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -2471,7 +2634,7 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -2486,7 +2649,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2501,7 +2664,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -2516,7 +2679,7 @@
       </c>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2531,7 +2694,7 @@
       </c>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2546,7 +2709,7 @@
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>87</v>
       </c>
@@ -2561,7 +2724,7 @@
       </c>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>88</v>
       </c>
@@ -2576,7 +2739,7 @@
       </c>
       <c r="E89" s="16"/>
     </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -2591,7 +2754,7 @@
       </c>
       <c r="E90" s="16"/>
     </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -2606,7 +2769,7 @@
       </c>
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -2621,7 +2784,7 @@
       </c>
       <c r="E92" s="16"/>
     </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>92</v>
       </c>
@@ -2636,7 +2799,7 @@
       </c>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>93</v>
       </c>
@@ -2651,7 +2814,7 @@
       </c>
       <c r="E94" s="16"/>
     </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
@@ -2666,7 +2829,7 @@
       </c>
       <c r="E95" s="16"/>
     </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>95</v>
       </c>
@@ -2681,7 +2844,7 @@
       </c>
       <c r="E96" s="16"/>
     </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
@@ -2696,7 +2859,7 @@
       </c>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>97</v>
       </c>
@@ -2711,7 +2874,7 @@
       </c>
       <c r="E98" s="16"/>
     </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
@@ -2726,7 +2889,7 @@
       </c>
       <c r="E99" s="16"/>
     </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -2741,7 +2904,7 @@
       </c>
       <c r="E100" s="16"/>
     </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>100</v>
       </c>
@@ -2756,7 +2919,7 @@
       </c>
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
@@ -2771,7 +2934,7 @@
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>102</v>
       </c>
@@ -2786,7 +2949,7 @@
       </c>
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -2801,7 +2964,7 @@
       </c>
       <c r="E104" s="16"/>
     </row>
-    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>104</v>
       </c>
@@ -2816,7 +2979,7 @@
       </c>
       <c r="E105" s="16"/>
     </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
@@ -2831,7 +2994,7 @@
       </c>
       <c r="E106" s="16"/>
     </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
@@ -2846,7 +3009,7 @@
       </c>
       <c r="E107" s="16"/>
     </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
@@ -2861,7 +3024,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
@@ -2876,34 +3039,32 @@
       </c>
       <c r="E109" s="16"/>
     </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E110" s="12">
         <f>COUNTIF(E2:E109,"NÃO ENCONTRADO")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E111" s="12">
         <f>COUNTA(E2:E109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E112" s="14" t="e">
         <f>1 - E110/E111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E113" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A105:A109">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\localizacaoLogradouro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizacaoDeLogradouro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADD68A1-D9D0-4646-9A36-34AC315EC8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395811E-9B20-479C-B730-1A11544FB8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logradouro" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="230">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -715,7 +715,16 @@
     <t>R. Emboabas, 160 - Laranjeiras</t>
   </si>
   <si>
+    <t>NÃO ENCONTRADO</t>
+  </si>
+  <si>
     <t>R. Argélia, 178 - Petrovale</t>
+  </si>
+  <si>
+    <t>R. Artur Rabêlo, 235 - Parque das Industrias</t>
+  </si>
+  <si>
+    <t>R. Ferreira, 350 - Eymard</t>
   </si>
 </sst>
 </file>
@@ -1240,22 +1249,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>168</v>
       </c>
@@ -1285,16 +1294,16 @@
       <c r="D2" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1303,15 +1312,15 @@
         <v>223</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -1320,15 +1329,15 @@
         <v>223</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1337,10 +1346,10 @@
         <v>223</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1354,29 +1363,63 @@
         <v>223</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="12">
-        <f>COUNTIF(E2:E6,"NÃO ENCONTRADO")</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="12">
+        <f>COUNTIF(E5:E5,"NÃO ENCONTRADO")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="12">
+        <f>COUNTA(E5:E5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="14">
+        <f>1 - E9/E10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="12">
-        <f>COUNTA(E2:E6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="14">
-        <f>1 - E7/E8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="13"/>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1393,16 +1436,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1434,7 +1477,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -1449,7 +1492,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1507,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1522,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1494,7 +1537,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +1552,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1567,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1539,7 +1582,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1597,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1612,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1627,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1642,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1614,7 +1657,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +1672,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1644,7 +1687,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1702,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1674,7 +1717,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +1732,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1704,7 +1747,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1762,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1734,7 +1777,7 @@
       </c>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +1792,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1807,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1779,7 +1822,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +1837,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1852,7 @@
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1867,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1839,7 +1882,7 @@
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1854,7 +1897,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1869,7 +1912,7 @@
       </c>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -1884,7 +1927,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1899,7 +1942,7 @@
       </c>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1914,7 +1957,7 @@
       </c>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1929,7 +1972,7 @@
       </c>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -1944,7 +1987,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -1959,7 +2002,7 @@
       </c>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +2017,7 @@
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -1989,7 +2032,7 @@
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -2004,7 +2047,7 @@
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -2019,7 +2062,7 @@
       </c>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
@@ -2034,7 +2077,7 @@
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -2049,7 +2092,7 @@
       </c>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2064,7 +2107,7 @@
       </c>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -2079,7 +2122,7 @@
       </c>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2094,7 +2137,7 @@
       </c>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -2109,7 +2152,7 @@
       </c>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -2124,7 +2167,7 @@
       </c>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -2139,7 +2182,7 @@
       </c>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>49</v>
       </c>
@@ -2154,7 +2197,7 @@
       </c>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
@@ -2169,7 +2212,7 @@
       </c>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -2184,7 +2227,7 @@
       </c>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2199,7 +2242,7 @@
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2214,7 +2257,7 @@
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2229,7 +2272,7 @@
       </c>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2244,7 +2287,7 @@
       </c>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>56</v>
       </c>
@@ -2259,7 +2302,7 @@
       </c>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2274,7 +2317,7 @@
       </c>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>58</v>
       </c>
@@ -2289,7 +2332,7 @@
       </c>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -2304,7 +2347,7 @@
       </c>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
@@ -2319,7 +2362,7 @@
       </c>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -2334,7 +2377,7 @@
       </c>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>62</v>
       </c>
@@ -2349,7 +2392,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
@@ -2364,7 +2407,7 @@
       </c>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>64</v>
       </c>
@@ -2379,7 +2422,7 @@
       </c>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>65</v>
       </c>
@@ -2394,7 +2437,7 @@
       </c>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -2409,7 +2452,7 @@
       </c>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -2424,7 +2467,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -2439,7 +2482,7 @@
       </c>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
@@ -2454,7 +2497,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
@@ -2469,7 +2512,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>71</v>
       </c>
@@ -2484,7 +2527,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>72</v>
       </c>
@@ -2499,7 +2542,7 @@
       </c>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -2514,7 +2557,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>74</v>
       </c>
@@ -2529,7 +2572,7 @@
       </c>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -2544,7 +2587,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -2559,7 +2602,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
@@ -2574,7 +2617,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
@@ -2589,7 +2632,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -2604,7 +2647,7 @@
       </c>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>80</v>
       </c>
@@ -2619,7 +2662,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -2634,7 +2677,7 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -2649,7 +2692,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2664,7 +2707,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -2679,7 +2722,7 @@
       </c>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +2737,7 @@
       </c>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2709,7 +2752,7 @@
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>87</v>
       </c>
@@ -2724,7 +2767,7 @@
       </c>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>88</v>
       </c>
@@ -2739,7 +2782,7 @@
       </c>
       <c r="E89" s="16"/>
     </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -2754,7 +2797,7 @@
       </c>
       <c r="E90" s="16"/>
     </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2812,7 @@
       </c>
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -2784,7 +2827,7 @@
       </c>
       <c r="E92" s="16"/>
     </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>92</v>
       </c>
@@ -2799,7 +2842,7 @@
       </c>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>93</v>
       </c>
@@ -2814,7 +2857,7 @@
       </c>
       <c r="E94" s="16"/>
     </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
@@ -2829,7 +2872,7 @@
       </c>
       <c r="E95" s="16"/>
     </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>95</v>
       </c>
@@ -2844,7 +2887,7 @@
       </c>
       <c r="E96" s="16"/>
     </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
@@ -2859,7 +2902,7 @@
       </c>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>97</v>
       </c>
@@ -2874,7 +2917,7 @@
       </c>
       <c r="E98" s="16"/>
     </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
@@ -2889,7 +2932,7 @@
       </c>
       <c r="E99" s="16"/>
     </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -2904,7 +2947,7 @@
       </c>
       <c r="E100" s="16"/>
     </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>100</v>
       </c>
@@ -2919,7 +2962,7 @@
       </c>
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
@@ -2934,7 +2977,7 @@
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>102</v>
       </c>
@@ -2949,7 +2992,7 @@
       </c>
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -2964,7 +3007,7 @@
       </c>
       <c r="E104" s="16"/>
     </row>
-    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>104</v>
       </c>
@@ -2979,7 +3022,7 @@
       </c>
       <c r="E105" s="16"/>
     </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
@@ -2994,7 +3037,7 @@
       </c>
       <c r="E106" s="16"/>
     </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
@@ -3009,7 +3052,7 @@
       </c>
       <c r="E107" s="16"/>
     </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
@@ -3024,7 +3067,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
@@ -3039,25 +3082,25 @@
       </c>
       <c r="E109" s="16"/>
     </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="12">
         <f>COUNTIF(E2:E109,"NÃO ENCONTRADO")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E111" s="12">
         <f>COUNTA(E2:E109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E112" s="14" t="e">
         <f>1 - E110/E111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E113" s="13"/>
     </row>
   </sheetData>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizacaoDeLogradouro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395811E-9B20-479C-B730-1A11544FB8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022C561-8E04-4AB2-8B27-62AC54FE0584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,25 +706,25 @@
     <t>Av. Rio Negro, 683 - Dom Bosco</t>
   </si>
   <si>
+    <t>Av. Juiz Marco Túlio Isaac, 9285 - Nova Baden</t>
+  </si>
+  <si>
+    <t>R. Emboabas, 160 - Laranjeiras</t>
+  </si>
+  <si>
+    <t>NÃO ENCONTRADO</t>
+  </si>
+  <si>
+    <t>R. Argélia, 178 - Petrovale</t>
+  </si>
+  <si>
+    <t>R. Artur Rabêlo, 235 - Parque das Industrias</t>
+  </si>
+  <si>
+    <t>R. Ferreira, 350 - Eymard</t>
+  </si>
+  <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Av. Juiz Marco Túlio Isaac, 9285 - Nova Baden</t>
-  </si>
-  <si>
-    <t>R. Emboabas, 160 - Laranjeiras</t>
-  </si>
-  <si>
-    <t>NÃO ENCONTRADO</t>
-  </si>
-  <si>
-    <t>R. Argélia, 178 - Petrovale</t>
-  </si>
-  <si>
-    <t>R. Artur Rabêlo, 235 - Parque das Industrias</t>
-  </si>
-  <si>
-    <t>R. Ferreira, 350 - Eymard</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>222</v>
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1326,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1360,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1394,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizacaoDeLogradouro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\localizacaoLogradouro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022C561-8E04-4AB2-8B27-62AC54FE0584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37DABF1-FBBC-4CE7-9273-1727BE6F0ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logradouro" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="223">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -703,28 +703,7 @@
     <t>A PROCESSAR</t>
   </si>
   <si>
-    <t>Av. Rio Negro, 683 - Dom Bosco</t>
-  </si>
-  <si>
-    <t>Av. Juiz Marco Túlio Isaac, 9285 - Nova Baden</t>
-  </si>
-  <si>
-    <t>R. Emboabas, 160 - Laranjeiras</t>
-  </si>
-  <si>
-    <t>NÃO ENCONTRADO</t>
-  </si>
-  <si>
-    <t>R. Argélia, 178 - Petrovale</t>
-  </si>
-  <si>
-    <t>R. Artur Rabêlo, 235 - Parque das Industrias</t>
-  </si>
-  <si>
-    <t>R. Ferreira, 350 - Eymard</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>CLÁUDIO MANOEL DA SILVA BORBA - AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
   </si>
 </sst>
 </file>
@@ -1252,19 +1231,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="34.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,9 +1260,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>167</v>
@@ -1292,13 +1271,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1309,13 +1286,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1326,13 +1301,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1343,13 +1316,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1360,13 +1331,11 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1377,13 +1346,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1394,31 +1361,29 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12">
         <f>COUNTIF(E5:E5,"NÃO ENCONTRADO")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="12">
         <f>COUNTA(E5:E5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="e">
         <f>1 - E9/E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="13"/>
     </row>
   </sheetData>
@@ -1436,16 +1401,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1427,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1477,7 +1442,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -1492,7 +1457,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1472,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1522,7 +1487,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1502,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1517,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1567,7 +1532,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1547,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1562,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1577,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1592,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1642,7 +1607,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1622,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1637,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1652,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1702,7 +1667,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +1682,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1697,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1747,7 +1712,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1727,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1742,7 @@
       </c>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1792,7 +1757,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1772,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1822,7 +1787,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1802,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -1852,7 +1817,7 @@
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1867,7 +1832,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1882,7 +1847,7 @@
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1897,7 +1862,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1912,7 +1877,7 @@
       </c>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -1927,7 +1892,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1942,7 +1907,7 @@
       </c>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1957,7 +1922,7 @@
       </c>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1972,7 +1937,7 @@
       </c>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -1987,7 +1952,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -2002,7 +1967,7 @@
       </c>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -2017,7 +1982,7 @@
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -2032,7 +1997,7 @@
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -2047,7 +2012,7 @@
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -2062,7 +2027,7 @@
       </c>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
@@ -2077,7 +2042,7 @@
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2057,7 @@
       </c>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2072,7 @@
       </c>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -2122,7 +2087,7 @@
       </c>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2137,7 +2102,7 @@
       </c>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -2152,7 +2117,7 @@
       </c>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -2167,7 +2132,7 @@
       </c>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -2182,7 +2147,7 @@
       </c>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +2162,7 @@
       </c>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
@@ -2212,7 +2177,7 @@
       </c>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -2227,7 +2192,7 @@
       </c>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2242,7 +2207,7 @@
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2257,7 +2222,7 @@
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2272,7 +2237,7 @@
       </c>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2287,7 +2252,7 @@
       </c>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>56</v>
       </c>
@@ -2302,7 +2267,7 @@
       </c>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2317,7 +2282,7 @@
       </c>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>58</v>
       </c>
@@ -2332,7 +2297,7 @@
       </c>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -2347,7 +2312,7 @@
       </c>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
@@ -2362,7 +2327,7 @@
       </c>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -2377,7 +2342,7 @@
       </c>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>62</v>
       </c>
@@ -2392,7 +2357,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
@@ -2407,7 +2372,7 @@
       </c>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>64</v>
       </c>
@@ -2422,7 +2387,7 @@
       </c>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>65</v>
       </c>
@@ -2437,7 +2402,7 @@
       </c>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -2452,7 +2417,7 @@
       </c>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -2467,7 +2432,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -2482,7 +2447,7 @@
       </c>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
@@ -2497,7 +2462,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
@@ -2512,7 +2477,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>71</v>
       </c>
@@ -2527,7 +2492,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>72</v>
       </c>
@@ -2542,7 +2507,7 @@
       </c>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -2557,7 +2522,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>74</v>
       </c>
@@ -2572,7 +2537,7 @@
       </c>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -2587,7 +2552,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -2602,7 +2567,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
@@ -2617,7 +2582,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
@@ -2632,7 +2597,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -2647,7 +2612,7 @@
       </c>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>80</v>
       </c>
@@ -2662,7 +2627,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -2677,7 +2642,7 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -2692,7 +2657,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2707,7 +2672,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -2722,7 +2687,7 @@
       </c>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2737,7 +2702,7 @@
       </c>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2752,7 +2717,7 @@
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>87</v>
       </c>
@@ -2767,7 +2732,7 @@
       </c>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>88</v>
       </c>
@@ -2782,7 +2747,7 @@
       </c>
       <c r="E89" s="16"/>
     </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="E90" s="16"/>
     </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -2812,7 +2777,7 @@
       </c>
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="E92" s="16"/>
     </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>92</v>
       </c>
@@ -2842,7 +2807,7 @@
       </c>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>93</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="E94" s="16"/>
     </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
@@ -2872,7 +2837,7 @@
       </c>
       <c r="E95" s="16"/>
     </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>95</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="E96" s="16"/>
     </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
@@ -2902,7 +2867,7 @@
       </c>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>97</v>
       </c>
@@ -2917,7 +2882,7 @@
       </c>
       <c r="E98" s="16"/>
     </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
@@ -2932,7 +2897,7 @@
       </c>
       <c r="E99" s="16"/>
     </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -2947,7 +2912,7 @@
       </c>
       <c r="E100" s="16"/>
     </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>100</v>
       </c>
@@ -2962,7 +2927,7 @@
       </c>
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
@@ -2977,7 +2942,7 @@
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>102</v>
       </c>
@@ -2992,7 +2957,7 @@
       </c>
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -3007,7 +2972,7 @@
       </c>
       <c r="E104" s="16"/>
     </row>
-    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>104</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="E105" s="16"/>
     </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
@@ -3037,7 +3002,7 @@
       </c>
       <c r="E106" s="16"/>
     </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
@@ -3052,7 +3017,7 @@
       </c>
       <c r="E107" s="16"/>
     </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
@@ -3067,7 +3032,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
@@ -3082,25 +3047,25 @@
       </c>
       <c r="E109" s="16"/>
     </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E110" s="12">
         <f>COUNTIF(E2:E109,"NÃO ENCONTRADO")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E111" s="12">
         <f>COUNTA(E2:E109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E112" s="14" t="e">
         <f>1 - E110/E111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E113" s="13"/>
     </row>
   </sheetData>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\localizacaoLogradouro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizacaoDeLogradouro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37DABF1-FBBC-4CE7-9273-1727BE6F0ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFD603-CDD2-461E-8F2B-9C7EBAA3159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logradouro" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="222">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -701,9 +701,6 @@
   </si>
   <si>
     <t>A PROCESSAR</t>
-  </si>
-  <si>
-    <t>CLÁUDIO MANOEL DA SILVA BORBA - AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
   </si>
 </sst>
 </file>
@@ -898,7 +895,21 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1228,22 +1239,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,58 +1271,58 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>222</v>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
@@ -1320,7 +1331,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +1346,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1361,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1365,29 +1376,1548 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="12">
-        <f>COUNTIF(E5:E5,"NÃO ENCONTRADO")</f>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="16"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="7">
+        <v>3</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="7">
+        <v>3</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="7">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="7">
+        <v>3</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="7">
+        <v>3</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="7">
+        <v>3</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="7">
+        <v>3</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="7">
+        <v>3</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="7">
+        <v>3</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="7">
+        <v>3</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="7">
+        <v>3</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="7">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="7">
+        <v>3</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="16"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="16"/>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="7">
+        <v>3</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="7">
+        <v>3</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="7">
+        <v>3</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="7">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="7">
+        <v>3</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="7">
+        <v>3</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="7">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="7">
+        <v>3</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" s="16"/>
+    </row>
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" s="16"/>
+    </row>
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="7">
+        <v>3</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="16"/>
+    </row>
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="16"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="7">
+        <v>3</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="7">
+        <v>3</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" s="7">
+        <v>3</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" s="16"/>
+    </row>
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="7">
+        <v>3</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" s="16"/>
+    </row>
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="7">
+        <v>3</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E82" s="16"/>
+    </row>
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="7">
+        <v>3</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E83" s="16"/>
+    </row>
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="7">
+        <v>3</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="16"/>
+    </row>
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" s="7">
+        <v>4</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="7">
+        <v>4</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="7">
+        <v>4</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="16"/>
+    </row>
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="7">
+        <v>4</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="16"/>
+    </row>
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="7">
+        <v>4</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="16"/>
+    </row>
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="7">
+        <v>4</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="7">
+        <v>4</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="7">
+        <v>4</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" s="16"/>
+    </row>
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="7">
+        <v>4</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" s="16"/>
+    </row>
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="7">
+        <v>4</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94" s="16"/>
+    </row>
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="7">
+        <v>4</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" s="16"/>
+    </row>
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" s="7">
+        <v>4</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" s="16"/>
+    </row>
+    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="7">
+        <v>4</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" s="16"/>
+    </row>
+    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="7">
+        <v>4</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E98" s="16"/>
+    </row>
+    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="7">
+        <v>4</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="16"/>
+    </row>
+    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" s="7">
+        <v>4</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" s="16"/>
+    </row>
+    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="7">
+        <v>4</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" s="16"/>
+    </row>
+    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="7">
+        <v>4</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" s="16"/>
+    </row>
+    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="7">
+        <v>4</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="16"/>
+    </row>
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C104" s="7">
+        <v>4</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" s="16"/>
+    </row>
+    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="7">
+        <v>4</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="7">
+        <v>4</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E106" s="16"/>
+    </row>
+    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="7">
+        <v>4</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" s="7">
+        <v>4</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="16"/>
+    </row>
+    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="7">
+        <v>4</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E109" s="16"/>
+    </row>
+    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="12">
+        <f>COUNTIF(E2:E109,"NÃO ENCONTRADO")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="12">
-        <f>COUNTA(E5:E5)</f>
+    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="12">
+        <f>COUNTA(E2:E109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="14" t="e">
-        <f>1 - E9/E10</f>
+    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="14" t="e">
+        <f>1 - E110/E111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="13"/>
+    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A105:A109">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1397,20 +2927,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C734A6-4A6B-4877-ACB5-438B430AEB76}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +2957,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +2972,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -1457,7 +2987,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +3002,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +3017,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +3032,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1517,7 +3047,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +3062,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +3077,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +3092,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +3107,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +3122,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +3137,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +3152,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +3167,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +3182,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1667,7 +3197,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1682,7 +3212,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1697,7 +3227,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +3242,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +3257,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +3272,7 @@
       </c>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +3287,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1772,7 +3302,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1787,7 +3317,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1802,7 +3332,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -1817,7 +3347,7 @@
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1832,7 +3362,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +3377,7 @@
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1862,7 +3392,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1877,7 +3407,7 @@
       </c>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -1892,7 +3422,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1907,7 +3437,7 @@
       </c>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1922,7 +3452,7 @@
       </c>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1937,7 +3467,7 @@
       </c>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -1952,7 +3482,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -1967,7 +3497,7 @@
       </c>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +3512,7 @@
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -1997,7 +3527,7 @@
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -2012,7 +3542,7 @@
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -2027,7 +3557,7 @@
       </c>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
@@ -2042,7 +3572,7 @@
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +3587,7 @@
       </c>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2072,7 +3602,7 @@
       </c>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +3617,7 @@
       </c>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2102,7 +3632,7 @@
       </c>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -2117,7 +3647,7 @@
       </c>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -2132,7 +3662,7 @@
       </c>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -2147,7 +3677,7 @@
       </c>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>49</v>
       </c>
@@ -2162,7 +3692,7 @@
       </c>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
@@ -2177,7 +3707,7 @@
       </c>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -2192,7 +3722,7 @@
       </c>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2207,7 +3737,7 @@
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2222,7 +3752,7 @@
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2237,7 +3767,7 @@
       </c>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2252,7 +3782,7 @@
       </c>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>56</v>
       </c>
@@ -2267,7 +3797,7 @@
       </c>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2282,7 +3812,7 @@
       </c>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>58</v>
       </c>
@@ -2297,7 +3827,7 @@
       </c>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -2312,7 +3842,7 @@
       </c>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
@@ -2327,7 +3857,7 @@
       </c>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -2342,7 +3872,7 @@
       </c>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>62</v>
       </c>
@@ -2357,7 +3887,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
@@ -2372,7 +3902,7 @@
       </c>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>64</v>
       </c>
@@ -2387,7 +3917,7 @@
       </c>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>65</v>
       </c>
@@ -2402,7 +3932,7 @@
       </c>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -2417,7 +3947,7 @@
       </c>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -2432,7 +3962,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -2447,7 +3977,7 @@
       </c>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
@@ -2462,7 +3992,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
@@ -2477,7 +4007,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>71</v>
       </c>
@@ -2492,7 +4022,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>72</v>
       </c>
@@ -2507,7 +4037,7 @@
       </c>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -2522,7 +4052,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>74</v>
       </c>
@@ -2537,7 +4067,7 @@
       </c>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -2552,7 +4082,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -2567,7 +4097,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
@@ -2582,7 +4112,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
@@ -2597,7 +4127,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -2612,7 +4142,7 @@
       </c>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>80</v>
       </c>
@@ -2627,7 +4157,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -2642,7 +4172,7 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -2657,7 +4187,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2672,7 +4202,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -2687,7 +4217,7 @@
       </c>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2702,7 +4232,7 @@
       </c>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2717,7 +4247,7 @@
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>87</v>
       </c>
@@ -2732,7 +4262,7 @@
       </c>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>88</v>
       </c>
@@ -2747,7 +4277,7 @@
       </c>
       <c r="E89" s="16"/>
     </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -2762,7 +4292,7 @@
       </c>
       <c r="E90" s="16"/>
     </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -2777,7 +4307,7 @@
       </c>
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -2792,7 +4322,7 @@
       </c>
       <c r="E92" s="16"/>
     </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>92</v>
       </c>
@@ -2807,7 +4337,7 @@
       </c>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>93</v>
       </c>
@@ -2822,7 +4352,7 @@
       </c>
       <c r="E94" s="16"/>
     </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
@@ -2837,7 +4367,7 @@
       </c>
       <c r="E95" s="16"/>
     </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>95</v>
       </c>
@@ -2852,7 +4382,7 @@
       </c>
       <c r="E96" s="16"/>
     </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
@@ -2867,7 +4397,7 @@
       </c>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>97</v>
       </c>
@@ -2882,7 +4412,7 @@
       </c>
       <c r="E98" s="16"/>
     </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
@@ -2897,7 +4427,7 @@
       </c>
       <c r="E99" s="16"/>
     </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -2912,7 +4442,7 @@
       </c>
       <c r="E100" s="16"/>
     </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>100</v>
       </c>
@@ -2927,7 +4457,7 @@
       </c>
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
@@ -2942,7 +4472,7 @@
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>102</v>
       </c>
@@ -2957,7 +4487,7 @@
       </c>
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -2972,7 +4502,7 @@
       </c>
       <c r="E104" s="16"/>
     </row>
-    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>104</v>
       </c>
@@ -2987,7 +4517,7 @@
       </c>
       <c r="E105" s="16"/>
     </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
@@ -3002,7 +4532,7 @@
       </c>
       <c r="E106" s="16"/>
     </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
@@ -3017,7 +4547,7 @@
       </c>
       <c r="E107" s="16"/>
     </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
@@ -3032,7 +4562,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
@@ -3047,25 +4577,25 @@
       </c>
       <c r="E109" s="16"/>
     </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="12">
         <f>COUNTIF(E2:E109,"NÃO ENCONTRADO")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E111" s="12">
         <f>COUNTA(E2:E109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E112" s="14" t="e">
         <f>1 - E110/E111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E113" s="13"/>
     </row>
   </sheetData>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizacaoDeLogradouro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CFD603-CDD2-461E-8F2B-9C7EBAA3159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996E07D-1448-4EB0-B23A-5A05D193D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="228">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -701,6 +701,24 @@
   </si>
   <si>
     <t>A PROCESSAR</t>
+  </si>
+  <si>
+    <t>Av. Rio Negro, 683 - Dom Bosco</t>
+  </si>
+  <si>
+    <t>Av. Juiz Marco Túlio Isaac, 9285 - Nova Baden</t>
+  </si>
+  <si>
+    <t>R. Emboabas, 160 - Laranjeiras</t>
+  </si>
+  <si>
+    <t>R. Argélia, 178 - Petrovale</t>
+  </si>
+  <si>
+    <t>R. Artur Rabêlo, 235 - Parque das Industrias</t>
+  </si>
+  <si>
+    <t>INSERIDO NO MYMAPS</t>
   </si>
 </sst>
 </file>
@@ -895,21 +913,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1239,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1272,1652 +1276,113 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
+      <c r="A2" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="15"/>
+        <v>227</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>168</v>
+      <c r="A3" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="16"/>
+        <v>227</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
+      <c r="A4" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="16"/>
+        <v>227</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="16"/>
+        <v>227</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="16"/>
+        <v>227</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="E7" s="12">
+        <f>COUNTIF(E2:E6,"NÃO ENCONTRADO")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="12">
+        <f>COUNTA(E2:E6)</f>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="7">
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="14">
+        <f>1 - E7/E8</f>
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="7">
-        <v>3</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="7">
-        <v>3</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="7">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="7">
-        <v>3</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="7">
-        <v>3</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="7">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="7">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="7">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="7">
-        <v>3</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="7">
-        <v>3</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="7">
-        <v>3</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="7">
-        <v>3</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="7">
-        <v>3</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="7">
-        <v>3</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" s="7">
-        <v>3</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="7">
-        <v>3</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="7">
-        <v>3</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="7">
-        <v>3</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="7">
-        <v>3</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="7">
-        <v>3</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="7">
-        <v>3</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="16"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="7">
-        <v>3</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="7">
-        <v>3</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="7">
-        <v>3</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="7">
-        <v>3</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="7">
-        <v>3</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="7">
-        <v>3</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="7">
-        <v>3</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="7">
-        <v>3</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E70" s="16"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="7">
-        <v>3</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E71" s="16"/>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="7">
-        <v>3</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="16"/>
-    </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="7">
-        <v>3</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E73" s="16"/>
-    </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="7">
-        <v>3</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E74" s="16"/>
-    </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" s="7">
-        <v>3</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E75" s="16"/>
-    </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" s="7">
-        <v>3</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="16"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C77" s="7">
-        <v>3</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="16"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="7">
-        <v>3</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" s="16"/>
-    </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="7">
-        <v>3</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="16"/>
-    </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80" s="7">
-        <v>3</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" s="16"/>
-    </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C81" s="7">
-        <v>3</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C82" s="7">
-        <v>3</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="7">
-        <v>3</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E83" s="16"/>
-    </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="7">
-        <v>3</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E84" s="16"/>
-    </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C85" s="7">
-        <v>4</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" s="7">
-        <v>4</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="7">
-        <v>4</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E87" s="16"/>
-    </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" s="7">
-        <v>4</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" s="16"/>
-    </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C89" s="7">
-        <v>4</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E89" s="16"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="7">
-        <v>4</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" s="16"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="7">
-        <v>4</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" s="16"/>
-    </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C92" s="7">
-        <v>4</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" s="16"/>
-    </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C93" s="7">
-        <v>4</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E93" s="16"/>
-    </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" s="7">
-        <v>4</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94" s="16"/>
-    </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="7">
-        <v>4</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E95" s="16"/>
-    </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C96" s="7">
-        <v>4</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" s="16"/>
-    </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="7">
-        <v>4</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E97" s="16"/>
-    </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="7">
-        <v>4</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E98" s="16"/>
-    </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="7">
-        <v>4</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E99" s="16"/>
-    </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100" s="7">
-        <v>4</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E100" s="16"/>
-    </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C101" s="7">
-        <v>4</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="16"/>
-    </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" s="7">
-        <v>4</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E102" s="16"/>
-    </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103" s="7">
-        <v>4</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E103" s="16"/>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C104" s="7">
-        <v>4</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E104" s="16"/>
-    </row>
-    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C105" s="7">
-        <v>4</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105" s="16"/>
-    </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C106" s="7">
-        <v>4</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E106" s="16"/>
-    </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C107" s="7">
-        <v>4</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E107" s="16"/>
-    </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C108" s="7">
-        <v>4</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" s="16"/>
-    </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C109" s="7">
-        <v>4</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E109" s="16"/>
-    </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E110" s="12">
-        <f>COUNTIF(E2:E109,"NÃO ENCONTRADO")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E111" s="12">
-        <f>COUNTA(E2:E109)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E112" s="14" t="e">
-        <f>1 - E110/E111</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E113" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A105:A109">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizacaoDeLogradouro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\localizacaoLogradouro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9996E07D-1448-4EB0-B23A-5A05D193D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B76BB62-F0D8-4070-8D0B-6CDBB0D9468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logradouro" sheetId="1" r:id="rId1"/>
@@ -703,6 +703,9 @@
     <t>A PROCESSAR</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>Av. Rio Negro, 683 - Dom Bosco</t>
   </si>
   <si>
@@ -716,9 +719,6 @@
   </si>
   <si>
     <t>R. Artur Rabêlo, 235 - Parque das Industrias</t>
-  </si>
-  <si>
-    <t>INSERIDO NO MYMAPS</t>
   </si>
 </sst>
 </file>
@@ -1246,19 +1246,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>168</v>
       </c>
@@ -1286,13 +1286,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1303,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1320,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1337,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1354,31 +1354,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="12">
         <f>COUNTIF(E2:E6,"NÃO ENCONTRADO")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="12">
         <f>COUNTA(E2:E6)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="14">
         <f>1 - E7/E8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="13"/>
     </row>
   </sheetData>
@@ -1396,16 +1396,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="102.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E31" s="16"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>41</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>49</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>50</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="E55" s="16"/>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>56</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E57" s="16"/>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="E58" s="16"/>
     </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>58</v>
       </c>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E59" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="E61" s="16"/>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>62</v>
       </c>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E63" s="16"/>
     </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="E64" s="16"/>
     </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>64</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E65" s="16"/>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>65</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="E67" s="16"/>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E68" s="16"/>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="E69" s="16"/>
     </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="E70" s="16"/>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>71</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="E72" s="16"/>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>72</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E73" s="16"/>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E74" s="16"/>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>74</v>
       </c>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E75" s="16"/>
     </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="E76" s="16"/>
     </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E77" s="16"/>
     </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="E78" s="16"/>
     </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E79" s="16"/>
     </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E80" s="16"/>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>80</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="E81" s="16"/>
     </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="E82" s="16"/>
     </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="E83" s="16"/>
     </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="E84" s="16"/>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="E87" s="16"/>
     </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>87</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>88</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="E89" s="16"/>
     </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="E90" s="16"/>
     </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E92" s="16"/>
     </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>92</v>
       </c>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>93</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="E94" s="16"/>
     </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E95" s="16"/>
     </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>95</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="E96" s="16"/>
     </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>97</v>
       </c>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="E98" s="16"/>
     </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="E99" s="16"/>
     </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E100" s="16"/>
     </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>100</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E101" s="16"/>
     </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="E102" s="16"/>
     </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>102</v>
       </c>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E103" s="16"/>
     </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E104" s="16"/>
     </row>
-    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>104</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="E105" s="16"/>
     </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E106" s="16"/>
     </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="E107" s="16"/>
     </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="E108" s="16"/>
     </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
@@ -3042,25 +3042,25 @@
       </c>
       <c r="E109" s="16"/>
     </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E110" s="12">
         <f>COUNTIF(E2:E109,"NÃO ENCONTRADO")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E111" s="12">
         <f>COUNTA(E2:E109)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E112" s="14" t="e">
         <f>1 - E110/E111</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E113" s="13"/>
     </row>
   </sheetData>
